--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Product Backlog CalmaVR.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Product Backlog CalmaVR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29406"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5BEC3E49-D895-4612-83F0-5C98CCBA0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51D20C5E-995D-4EBC-B2E8-4FA9DFC5FACC}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{5BEC3E49-D895-4612-83F0-5C98CCBA0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2F348A-101E-4E36-9563-2F88DE468A6C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,13 +134,13 @@
     <t>Desarrollo de terapias basicas</t>
   </si>
   <si>
+    <t>Implementacion de Guia auditivia</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
     <t>Sin empezar</t>
-  </si>
-  <si>
-    <t>Implementacion de Guia auditivia</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
   </si>
   <si>
     <t>Prueba controlada con estudiantes</t>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6"/>
@@ -1570,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2">
         <v>13</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="21" spans="1:29" ht="21.95" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
@@ -1615,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2">
         <v>21</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="22" spans="1:29" ht="21.95" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>9</v>
@@ -1660,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3">
         <f>SUM(F23:F28)</f>
@@ -1706,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2">
         <v>21</v>
@@ -1751,7 +1751,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F24" s="2">
         <v>21</v>
@@ -1796,7 +1796,7 @@
         <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F25" s="2">
         <v>8</v>
@@ -1841,7 +1841,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" s="2">
         <v>21</v>
@@ -1886,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" s="2">
         <v>21</v>
@@ -1931,7 +1931,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F28" s="2">
         <v>5</v>
@@ -3461,7 +3461,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Product Backlog CalmaVR.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Product Backlog CalmaVR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29512"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{5BEC3E49-D895-4612-83F0-5C98CCBA0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2F348A-101E-4E36-9563-2F88DE468A6C}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{5BEC3E49-D895-4612-83F0-5C98CCBA0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD7A75A-CCDC-4638-B437-FD9128EAC32C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
   <si>
     <t>Lista del producto</t>
   </si>
@@ -122,49 +122,52 @@
     <t>Sprint 2</t>
   </si>
   <si>
+    <t>Desarrollo de interfaz de usuario</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Desarrollo de terapias basicas</t>
+  </si>
+  <si>
+    <t>Implementacion de Guia auditivia</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
     <t>En progreso</t>
   </si>
   <si>
-    <t>Desarrollo de interfaz de usuario</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Desarrollo de terapias basicas</t>
-  </si>
-  <si>
-    <t>Implementacion de Guia auditivia</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
+    <t>Prueba controlada con estudiantes</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t>Optimizacion del entorno VR</t>
+  </si>
+  <si>
+    <t>Ajustes en la interfaz de usuario</t>
+  </si>
+  <si>
+    <t>Mejora del rendimiento e inmersion</t>
+  </si>
+  <si>
+    <t>Correccion de errores y bugs</t>
+  </si>
+  <si>
+    <t>Validacion y revision Docente</t>
+  </si>
+  <si>
+    <t>Cree una lista del producto en Smartsheet</t>
+  </si>
+  <si>
+    <t>Esta hoja es para activar las listas desplegables</t>
   </si>
   <si>
     <t>Sin empezar</t>
-  </si>
-  <si>
-    <t>Prueba controlada con estudiantes</t>
-  </si>
-  <si>
-    <t>Optimizacion del entorno VR</t>
-  </si>
-  <si>
-    <t>Ajustes en la interfaz de usuario</t>
-  </si>
-  <si>
-    <t>Mejora del rendimiento e inmersion</t>
-  </si>
-  <si>
-    <t>Correccion de errores y bugs</t>
-  </si>
-  <si>
-    <t>Validacion y revision Docente</t>
-  </si>
-  <si>
-    <t>Cree una lista del producto en Smartsheet</t>
-  </si>
-  <si>
-    <t>Esta hoja es para activar las listas desplegables</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>24492</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>157841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>816428</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>115658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC74"/>
+  <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6"/>
@@ -1473,20 +1476,20 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3">
         <f>SUM(F19:F21)</f>
         <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1513,25 +1516,25 @@
     </row>
     <row r="19" spans="1:29" ht="21.95" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1558,25 +1561,25 @@
     </row>
     <row r="20" spans="1:29" ht="21.95" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2">
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1603,25 +1606,25 @@
     </row>
     <row r="21" spans="1:29" ht="21.95" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2">
         <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1648,26 +1651,26 @@
     </row>
     <row r="22" spans="1:29" ht="21.95" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="3">
-        <f>SUM(F23:F28)</f>
-        <v>97</v>
+        <f>SUM(F23:F29)</f>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1694,7 +1697,7 @@
     </row>
     <row r="23" spans="1:29" ht="21.95" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
@@ -1706,13 +1709,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2">
         <v>21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1739,10 +1742,10 @@
     </row>
     <row r="24" spans="1:29" ht="21.95" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
@@ -1751,13 +1754,13 @@
         <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F24" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1784,7 +1787,7 @@
     </row>
     <row r="25" spans="1:29" ht="21.95" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -1793,16 +1796,16 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1829,25 +1832,25 @@
     </row>
     <row r="26" spans="1:29" ht="21.95" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1874,25 +1877,25 @@
     </row>
     <row r="27" spans="1:29" ht="21.95" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F27" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1919,7 +1922,7 @@
     </row>
     <row r="28" spans="1:29" ht="21.95" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -1928,16 +1931,16 @@
         <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1962,14 +1965,28 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
     </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+    <row r="29" spans="1:29" ht="21.95" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -2025,21 +2042,19 @@
       <c r="AC30" s="5"/>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -2058,7 +2073,9 @@
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="11"/>
+      <c r="A32" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2213,19 +2230,19 @@
       <c r="AC36" s="5"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="6"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -3390,23 +3407,54 @@
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
     </row>
+    <row r="75" spans="1:29">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:L36"/>
+    <mergeCell ref="A32:L37"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C28 G7:G28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C29 G7:G29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D28" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E28" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A31:L36" r:id="rId1" display="Cree una lista del producto en Smartsheet" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A32:L37" r:id="rId1" display="Cree una lista del producto en Smartsheet" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3453,15 +3501,15 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Product Backlog CalmaVR.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Product Backlog CalmaVR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29523"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{5BEC3E49-D895-4612-83F0-5C98CCBA0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD7A75A-CCDC-4638-B437-FD9128EAC32C}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{5BEC3E49-D895-4612-83F0-5C98CCBA0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27A33815-4841-45F5-812D-49FC65DF1E86}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6"/>
@@ -1703,7 +1703,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>10</v>
@@ -1748,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>17</v>
@@ -1793,13 +1793,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2">
         <v>21</v>
@@ -1838,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>26</v>
@@ -1883,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>26</v>
@@ -1928,13 +1928,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F28" s="2">
         <v>21</v>
@@ -1973,13 +1973,13 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2">
         <v>5</v>
@@ -3443,7 +3443,7 @@
     <mergeCell ref="A32:L37"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C29 G7:G29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G29 B7:C29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>YesNo</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
